--- a/ASP.NET CORE/OPerationManagerment/OPERATION_MNS_SYSTEM/OPERATION_MNS/wwwroot/templates/MaterialToSapCodeTemplate.xlsx
+++ b/ASP.NET CORE/OPerationManagerment/OPERATION_MNS_SYSTEM/OPERATION_MNS/wwwroot/templates/MaterialToSapCodeTemplate.xlsx
@@ -29,7 +29,7 @@
     <t>Material</t>
   </si>
   <si>
-    <t>Mode SAP_CODE</t>
+    <t>SAP_CODE</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
